--- a/Aradhana/Test Template Document Corp - Copy (2).xlsx
+++ b/Aradhana/Test Template Document Corp - Copy (2).xlsx
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0" shapeId="0">
+    <comment ref="G36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="250">
   <si>
     <t>Project ID</t>
   </si>
@@ -646,9 +646,6 @@
 Username:Admin</t>
   </si>
   <si>
-    <t>TC_OH_23</t>
-  </si>
-  <si>
     <t>TC_OH_24</t>
   </si>
   <si>
@@ -661,21 +658,6 @@
 4. Should check the registered mail id and also spam folder for link</t>
   </si>
   <si>
-    <t>1.Navigate using url.
-2. Click on the"Forget password" message
-3. Click on Resetpassword button.
-4. Open the link mentioned in the  mail .</t>
-  </si>
-  <si>
-    <t>Check the url is not  working</t>
-  </si>
-  <si>
-    <t>Link should allow to change the password and again navigate to the reset password page of OrangeHRM..</t>
-  </si>
-  <si>
-    <t>Link should not get opened.</t>
-  </si>
-  <si>
     <t>TC_OH_25</t>
   </si>
   <si>
@@ -691,13 +673,6 @@
 4. Should check the received mail and also spam folder for link.</t>
   </si>
   <si>
-    <t>1.. OrangeHRM logo should be present
-2.Should contain a textbox.
-3. Label should be present  as "New password".
-4.Textbox for entering the new password.
-5.Update password button.</t>
-  </si>
-  <si>
     <t>valid password and update password</t>
   </si>
   <si>
@@ -716,24 +691,9 @@
     <t>invalid password</t>
   </si>
   <si>
-    <t>Previous password checks</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Should display "New password cannot be previous used password".</t>
   </si>
   <si>
-    <t>Less than 8 character entered</t>
-  </si>
-  <si>
-    <t>More than 8 character entered</t>
-  </si>
-  <si>
-    <t>Special character other than @,*,$ used</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Should display this message "minimum one uppercase, one special character ($,*,@)"</t>
-  </si>
-  <si>
     <t>TC_OH_30</t>
   </si>
   <si>
@@ -743,20 +703,7 @@
     <t>TC_OH_32</t>
   </si>
   <si>
-    <t>Data1
-Only numbers entered.</t>
-  </si>
-  <si>
     <t xml:space="preserve">invalid password </t>
-  </si>
-  <si>
-    <t>Data 1
-Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data1 
- Entered Space in the password.
-</t>
   </si>
   <si>
     <t>TC_OH_33</t>
@@ -793,21 +740,11 @@
 </t>
   </si>
   <si>
-    <t>Should display message" try with old password and login"</t>
-  </si>
-  <si>
     <t>Meassge should be displayed ""Could not find a user with given details".</t>
-  </si>
-  <si>
-    <t>Data 1:
-password:aradhana123</t>
   </si>
   <si>
     <t xml:space="preserve">1.Navigate using url.
 2. Click on the"Forget password" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validates the mail contain necessary details for resetting the password. </t>
   </si>
   <si>
     <t>1.Navigate to the url
@@ -816,15 +753,453 @@
 4. Click login.</t>
   </si>
   <si>
+    <t>Upper case skipped
+Data: balaji@123</t>
+  </si>
+  <si>
+    <t>Should display message"Invalid credentials"</t>
+  </si>
+  <si>
+    <t>Data 1
+Data: "no DATA entered".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data1 
+ password: Aru </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">123
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Data1
+Password: 12345</t>
+  </si>
+  <si>
+    <t>Data 1:
+password:Aradhana@123</t>
+  </si>
+  <si>
+    <t>Data 1: Admin@123
+Data 2:Admin@123</t>
+  </si>
+  <si>
+    <t>Data 1: Aa@12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should display this message "minimum one uppercase, one special character ($,*,@), with 8 character"</t>
+  </si>
+  <si>
+    <t>Data 1:
+password:aeadhana%%12</t>
+  </si>
+  <si>
+    <t>Data 1:
+password:aaaaaaaaa@*12</t>
+  </si>
+  <si>
+    <t>1.. OrangeHRM logo should be present
+2. Label should be present  as "New password".
+3.Textbox for entering the new password.
+4.Update password button.</t>
+  </si>
+  <si>
+    <t>User should be navigated to reset page</t>
+  </si>
+  <si>
+    <t>Mail should contain Subject"Orange HRM reset password link"</t>
+  </si>
+  <si>
     <t>1.Navigate using url.
 2. Click on the"Forget password" message
 3. Click on Resetpassword button.
-4. Open the link mentioned in the  mail .
-5. Enter the old password</t>
-  </si>
-  <si>
-    <t>Upper case skipped
-Data: balaji@123</t>
+4.Open mail
+5. Open the link mentioned in the  mail .</t>
+  </si>
+  <si>
+    <t>SC_OH_09</t>
+  </si>
+  <si>
+    <t>Employee-Add</t>
+  </si>
+  <si>
+    <t>TC_OH_36</t>
+  </si>
+  <si>
+    <t>To verify UI component for add employee section</t>
+  </si>
+  <si>
+    <t>Navigate to the url mentioned in the RTM</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.</t>
+  </si>
+  <si>
+    <t>Data:
+Add username:Admin
+password:admin123</t>
+  </si>
+  <si>
+    <t>TC_OH_37</t>
+  </si>
+  <si>
+    <t>To verify UI component for add employee section after checking create login details</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Check on create login details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Add Employee header should be displayed.
+2.Logo should be displayed.
+3.Textbox for firstname, middle name, last name, employee id.
+4.Image upload option should be present.
+5.Should display this message below chose file option"Accepts jpg,png,.gif upto 1 MB . Recommended dimensions 200px * 200px.
+6.Checkbox for create login detail and should be unchecked
+7.Should have Save button.
+8.Label for first name, lastname,middle name, employee photo,employee id, createlogin details should be displayed.
+</t>
+  </si>
+  <si>
+    <t>1.Add Employee header should be displayed.
+2.Logo should be displayed.
+3.Textbox for firstname, middle name, last name, employee id.
+4.Image upload option should be present.
+5.Should display this message below chose file option"Accepts jpg,png,.gif upto 1 MB . Recommended dimensions 200px * 200px.
+6.Checkbox for create login detail and should be checked.
+7.Should have Save button.
+8.Label for first name, lastname,middle name, employee photo,employee id, create login detail should be displayed.
+9.A drop down box for Status field with drop down option-Enabled,Disabled where enable should be selected by default.
+10.Textbox for username, password,confirm password.
+11.Label for username, password, confirm password.
+12. Should display message near password textbox "For strong password please use a hard to guess combination of text with upper and lower case characters, symbols and numbers".</t>
+  </si>
+  <si>
+    <t>TC_OH_38</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee without providing credentials</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Click on Save button.</t>
+  </si>
+  <si>
+    <t>1.Admin should see message as"Employee record has been added to employee list"
+2. The added employee details should bepresent in the employees lis (PIM--Employee List)
+3.Database should conatin the added employee details.</t>
+  </si>
+  <si>
+    <t>TC_OH_39</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee with providing credentials with enabled mode</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Check the create login box.
+11.Enter  username, password, confirm password.
+12.Status:Enabled 
+13.Click on save button.</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).png"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Enabled</t>
+  </si>
+  <si>
+    <t>TC_OH_40</t>
+  </si>
+  <si>
+    <t>To verify the valid record of add employee with providing credentials with disabled mode</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Check the create login box.
+11.Enter  username, password, confirm password.
+12.Status:Disabled 
+13.Click on save button.</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).png"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Disabled</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+7.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).png"</t>
+  </si>
+  <si>
+    <t>1.Admin should see message as"Employee record has been added to employee list"
+2. The added employee details should bepresent in the employees list (PIM--Employee List)
+3.Database should conatin the added employee details.</t>
+  </si>
+  <si>
+    <t>TC_OH_41</t>
+  </si>
+  <si>
+    <t>TC_OH_42</t>
+  </si>
+  <si>
+    <t>1. User should be displayed with the messgae"File type not supported".</t>
+  </si>
+  <si>
+    <t>To verify uploading file more than 1MB should not be accepted</t>
+  </si>
+  <si>
+    <t>To verfiy for different records for password and confirm password</t>
+  </si>
+  <si>
+    <t>User should be displayed with the message "Confirm password should match the given password".</t>
+  </si>
+  <si>
+    <t>To verify a valid employee record with credential enabled.</t>
+  </si>
+  <si>
+    <t>TC_OH_43</t>
+  </si>
+  <si>
+    <t>TC_OH_44</t>
+  </si>
+  <si>
+    <t>To verify a valid employee record with credential disabled.</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).pdf"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Enabled.
+10.Logout of the portal.
+11. Login 
+username:Aradhana
+password:aradhana123.</t>
+  </si>
+  <si>
+    <t>User should be able to login and should be directed to the Dashboard page.</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).pdf"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Enabled(default).</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).pdf"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana124.
+9. Status:Enabled(default)</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).pdf"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Disabled.
+10.Logout of the portal.
+11.Login.
+12.Login
+username:Aradhana
+password:aradhana123.</t>
+  </si>
+  <si>
+    <t>TC_OH_45</t>
+  </si>
+  <si>
+    <t>To verify a valid employee record with credential disabled change it to enable and login.</t>
+  </si>
+  <si>
+    <t>Data:
+1.username:Admin
+2.password:admin123
+3.Firstname:Aradhana
+4.Middlename:Anil
+5.Lastname : Shinde
+6.Employee id: 1322
+6.Upload image:"C:\Users\P1345360\Pictures\Screenshots\Screenshot (38).pdf"
+7.Check the create login box.
+8.Username:Aradhana
+password:aradhana123.
+confirm password: aradhana123.
+9. Status:Disabled.
+10.Logout of the portal.
+11.Login.
+12.Login
+username:Aradhana
+password:aradhana123.
+13.Change status to :Enabled</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Check the create login box.
+11.Enter  username, password, confirm password.
+12.Status:Disabled 
+13.Click on save button.
+14.Should logout of the portal.
+15.Enter Username
+16. Enter Password
+17. Click Login</t>
+  </si>
+  <si>
+    <t>User should not be able to login and should display message "Invalid Credential".</t>
+  </si>
+  <si>
+    <t>1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Check the create login box.
+11.Enter  username, password, confirm password.
+12.Status:Enabled 
+13.Click on save button.
+14.Should logout of the portal .
+15.Enter Username
+16. Enter Password
+17. Click Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to the url.
+2.Enter Admin username.
+3.Enter password.
+4.Click login.
+5.Mouse over on PIM.
+6.Click on Add Employee.
+7.Enter firstname,middle name.
+8.Enter password,employee id.
+9.Upload photo.
+10.Check the create login box.
+11.Enter  username, password, confirm password.
+12.Status:Disabled 
+13.Click on save button.
+14. Goto Employee list 
+15. Enable the added employee status
+16.Should logout of the portal.
+16.Enter Username
+17. Enter Password
+18. Click Login
+</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1511,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1245,6 +1620,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,12 +1646,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1753,11 +2125,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="4" customFormat="1" ht="22.5">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="2:4" s="5" customFormat="1" ht="15">
       <c r="C5" s="6"/>
@@ -1766,28 +2138,28 @@
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="2:4" ht="31.5" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
       <c r="B10" s="9"/>
@@ -1877,7 +2249,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
@@ -2005,8 +2377,12 @@
     </row>
     <row r="15" spans="1:4" ht="13.9">
       <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="13.9">
@@ -2040,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="12.75"/>
@@ -2363,7 +2739,7 @@
         <v>131</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="21" t="s">
@@ -2518,7 +2894,7 @@
         <v>145</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" ht="51">
@@ -2582,11 +2958,11 @@
       <c r="F23" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="21" customFormat="1" ht="89.25">
+      <c r="G23" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A24" s="33" t="s">
         <v>149</v>
       </c>
@@ -2594,82 +2970,85 @@
         <v>151</v>
       </c>
       <c r="C24" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="21" customFormat="1" ht="102">
+      <c r="A25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="46" customFormat="1" ht="89.25">
-      <c r="A25" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="21" customFormat="1" ht="89.25">
+      <c r="E25" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A26" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A27" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="89.25">
+    </row>
+    <row r="28" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A28" s="33" t="s">
         <v>149</v>
       </c>
@@ -2677,180 +3056,180 @@
         <v>166</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>163</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="21" customFormat="1" ht="154.15" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="21" customFormat="1" ht="154.15" customHeight="1">
+        <v>163</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A30" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>163</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A31" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>163</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A32" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>163</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A33" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>163</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="21" customFormat="1" ht="102">
       <c r="A34" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="21" customFormat="1" ht="89.25">
+        <v>189</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="21" customFormat="1" ht="51">
       <c r="A35" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="21" customFormat="1" ht="51">
@@ -2858,56 +3237,254 @@
         <v>149</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="21" customFormat="1" ht="51">
-      <c r="A37" s="33" t="s">
-        <v>149</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="21" customFormat="1" ht="216.75">
+      <c r="A37" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="21" customFormat="1"/>
-    <row r="39" spans="1:7" s="21" customFormat="1"/>
-    <row r="40" spans="1:7" s="21" customFormat="1"/>
-    <row r="41" spans="1:7" s="21" customFormat="1"/>
-    <row r="42" spans="1:7" s="21" customFormat="1"/>
-    <row r="43" spans="1:7" s="21" customFormat="1"/>
-    <row r="44" spans="1:7" s="21" customFormat="1"/>
-    <row r="45" spans="1:7" s="21" customFormat="1"/>
-    <row r="46" spans="1:7" s="21" customFormat="1"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="21" customFormat="1" ht="357">
+      <c r="A38" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="21" customFormat="1" ht="153">
+      <c r="A39" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="21" customFormat="1" ht="216.75">
+      <c r="A40" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="21" customFormat="1" ht="216.75">
+      <c r="A41" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="21" customFormat="1" ht="216.75">
+      <c r="A42" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="21" customFormat="1" ht="216.75">
+      <c r="A43" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="21" customFormat="1" ht="280.5">
+      <c r="A44" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="21" customFormat="1" ht="267.75">
+      <c r="A45" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="21" customFormat="1" ht="318.75">
+      <c r="A46" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="47" spans="1:7" s="21" customFormat="1"/>
     <row r="48" spans="1:7" s="21" customFormat="1"/>
     <row r="49" s="21" customFormat="1"/>
@@ -3248,7 +3825,6 @@
     <row r="384" s="21" customFormat="1"/>
     <row r="385" s="21" customFormat="1"/>
     <row r="386" s="21" customFormat="1"/>
-    <row r="387" s="21" customFormat="1"/>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -3276,11 +3852,19 @@
     <hyperlink ref="A20:A21" location="RTM!B13" tooltip="Forgot your password validation" display="SC_OH_07"/>
     <hyperlink ref="A22" location="RTM!B13" tooltip="Forgot your password validation" display="SC_OH_07"/>
     <hyperlink ref="A23" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
-    <hyperlink ref="A24:A25" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
-    <hyperlink ref="A26:A27" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
-    <hyperlink ref="A28:A30" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
-    <hyperlink ref="A31:A33" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
-    <hyperlink ref="A34:A37" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A24" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A25:A26" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A27:A29" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A30:A32" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A33:A36" location="RTM!B14" tooltip="Reset link" display="SC_OH_08"/>
+    <hyperlink ref="A37" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_08"/>
+    <hyperlink ref="A38" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_08"/>
+    <hyperlink ref="A39" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
+    <hyperlink ref="A40" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
+    <hyperlink ref="A41" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
+    <hyperlink ref="A42:A43" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
+    <hyperlink ref="A44:A45" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
+    <hyperlink ref="A46" location="RTM!B15" tooltip="Employee-Add" display="SC_OH_09"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3304,14 +3888,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.399999999999999" thickTop="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="13.9" thickTop="1" thickBot="1">
       <c r="A2" s="22"/>
@@ -3425,10 +4009,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3437,7 +4017,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Levels xmlns="81372d4e-bcfc-4844-a57b-a09c5da71958">L1</Levels>
@@ -3448,7 +4028,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046351F880B96AE4B9BB4815879ADEBDD" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="487f15db4e05f84fdb19aa3f548b93b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81372d4e-bcfc-4844-a57b-a09c5da71958" xmlns:ns3="952a6df7-b138-4f89-9bc4-e7a874ea3254" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="09419ac551552483846d59652a820d17" ns2:_="" ns3:_="">
     <xsd:import namespace="81372d4e-bcfc-4844-a57b-a09c5da71958"/>
@@ -3618,15 +4198,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4DBA88-91AD-42CE-827B-50AA920D4CEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3634,7 +4210,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CC0C1-FD42-47A7-BEBF-6413B223EE92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3645,7 +4221,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E28044-843A-4D7D-9F1F-711CA3C23377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3662,4 +4238,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67F96C4C-21BE-4526-9614-87D2A1A52CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>